--- a/app/static/generated_excel_files/2020-8_НЗОК%911-9-25_1%invoice_reference.xlsx
+++ b/app/static/generated_excel_files/2020-8_НЗОК%911-9-25_1%invoice_reference.xlsx
@@ -681,13 +681,13 @@
         </is>
       </c>
       <c r="E12" s="7" t="n">
-        <v>51.132081</v>
+        <v>51.132</v>
       </c>
       <c r="F12" s="8" t="n">
         <v>107.55</v>
       </c>
       <c r="G12" s="8" t="n">
-        <v>5499.25531155</v>
+        <v>5499.2466</v>
       </c>
     </row>
     <row r="13">
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="E13" s="9" t="n">
-        <v>51.132081</v>
+        <v>51.132</v>
       </c>
       <c r="G13" s="8" t="n">
         <v>2474.58</v>
@@ -710,13 +710,13 @@
         </is>
       </c>
       <c r="E14" s="9" t="n">
-        <v>51.132081</v>
+        <v>51.132</v>
       </c>
       <c r="F14" s="10" t="n">
         <v>21.47</v>
       </c>
       <c r="G14" s="8" t="n">
-        <v>1097.79</v>
+        <v>1097.8</v>
       </c>
     </row>
     <row r="15">
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="E15" s="9" t="n">
-        <v>51.132081</v>
+        <v>51.132</v>
       </c>
       <c r="F15" s="10" t="n">
         <v>2</v>
@@ -745,11 +745,11 @@
       <c r="C16" s="11" t="n"/>
       <c r="D16" s="11" t="n"/>
       <c r="E16" s="12" t="n">
-        <v>51.132081</v>
+        <v>51.132</v>
       </c>
       <c r="F16" s="11" t="n"/>
       <c r="G16" s="13" t="n">
-        <v>9173.885311550001</v>
+        <v>9173.8866</v>
       </c>
     </row>
     <row r="17"/>
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="D30" s="20" t="n">
-        <v>344.001</v>
+        <v>344</v>
       </c>
       <c r="E30" s="21" t="n">
-        <v>37</v>
+        <v>36.997</v>
       </c>
       <c r="F30" s="21" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="G30" s="21" t="n">
-        <v>7.39</v>
+        <v>7.386</v>
       </c>
       <c r="H30" s="21" t="n">
         <v>18.93</v>
       </c>
       <c r="I30" s="21" t="n">
-        <v>64.01000000000001</v>
+        <v>64.001</v>
       </c>
     </row>
     <row r="31">
@@ -1040,19 +1040,19 @@
         <v>1</v>
       </c>
       <c r="E35" s="21" t="n">
-        <v>0.11</v>
+        <v>0.108</v>
       </c>
       <c r="F35" s="21" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="G35" s="21" t="n">
-        <v>0.02</v>
+        <v>0.021</v>
       </c>
       <c r="H35" s="21" t="n">
         <v>3.74</v>
       </c>
       <c r="I35" s="21" t="n">
-        <v>3.87</v>
+        <v>3.871</v>
       </c>
     </row>
     <row r="36">
@@ -1172,19 +1172,19 @@
         <v>3</v>
       </c>
       <c r="E39" s="21" t="n">
-        <v>0.32</v>
+        <v>0.323</v>
       </c>
       <c r="F39" s="21" t="n">
-        <v>0.01</v>
+        <v>0.006</v>
       </c>
       <c r="G39" s="21" t="n">
-        <v>0.06</v>
+        <v>0.064</v>
       </c>
       <c r="H39" s="21" t="n">
         <v>3.83</v>
       </c>
       <c r="I39" s="21" t="n">
-        <v>4.22</v>
+        <v>4.223</v>
       </c>
     </row>
     <row r="40">
@@ -1235,7 +1235,7 @@
         </is>
       </c>
       <c r="D41" s="20" t="n">
-        <v>355.001</v>
+        <v>355</v>
       </c>
       <c r="E41" s="21" t="n">
         <v>38.18</v>
@@ -1244,13 +1244,13 @@
         <v>0.71</v>
       </c>
       <c r="G41" s="21" t="n">
-        <v>7.62</v>
+        <v>7.622</v>
       </c>
       <c r="H41" s="21" t="n">
         <v>19.43</v>
       </c>
       <c r="I41" s="21" t="n">
-        <v>65.94</v>
+        <v>65.94199999999999</v>
       </c>
     </row>
     <row r="42">
@@ -1268,22 +1268,22 @@
         </is>
       </c>
       <c r="D42" s="20" t="n">
-        <v>420.001</v>
+        <v>420</v>
       </c>
       <c r="E42" s="21" t="n">
-        <v>45.17</v>
+        <v>45.171</v>
       </c>
       <c r="F42" s="21" t="n">
         <v>0.84</v>
       </c>
       <c r="G42" s="21" t="n">
-        <v>9.02</v>
+        <v>9.016999999999999</v>
       </c>
       <c r="H42" s="21" t="n">
         <v>22.31</v>
       </c>
       <c r="I42" s="21" t="n">
-        <v>77.34</v>
+        <v>77.33799999999999</v>
       </c>
     </row>
     <row r="43">
@@ -1301,22 +1301,22 @@
         </is>
       </c>
       <c r="D43" s="20" t="n">
-        <v>403.001</v>
+        <v>403</v>
       </c>
       <c r="E43" s="21" t="n">
-        <v>43.34</v>
+        <v>43.343</v>
       </c>
       <c r="F43" s="21" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.806</v>
       </c>
       <c r="G43" s="21" t="n">
-        <v>8.65</v>
+        <v>8.651999999999999</v>
       </c>
       <c r="H43" s="21" t="n">
         <v>21.55</v>
       </c>
       <c r="I43" s="21" t="n">
-        <v>74.34999999999999</v>
+        <v>74.351</v>
       </c>
     </row>
     <row r="44">
@@ -1334,22 +1334,22 @@
         </is>
       </c>
       <c r="D44" s="20" t="n">
-        <v>342.001</v>
+        <v>342</v>
       </c>
       <c r="E44" s="21" t="n">
-        <v>36.78</v>
+        <v>36.782</v>
       </c>
       <c r="F44" s="21" t="n">
-        <v>0.68</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="G44" s="21" t="n">
-        <v>7.34</v>
+        <v>7.343</v>
       </c>
       <c r="H44" s="21" t="n">
         <v>18.84</v>
       </c>
       <c r="I44" s="21" t="n">
-        <v>63.64</v>
+        <v>63.649</v>
       </c>
     </row>
     <row r="45">
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="D45" s="20" t="n">
-        <v>402.001</v>
+        <v>402</v>
       </c>
       <c r="E45" s="21" t="n">
-        <v>43.24</v>
+        <v>43.235</v>
       </c>
       <c r="F45" s="21" t="n">
-        <v>0.8</v>
+        <v>0.804</v>
       </c>
       <c r="G45" s="21" t="n">
-        <v>8.630000000000001</v>
+        <v>8.631</v>
       </c>
       <c r="H45" s="21" t="n">
         <v>21.51</v>
@@ -1400,22 +1400,22 @@
         </is>
       </c>
       <c r="D46" s="20" t="n">
-        <v>390.001</v>
+        <v>390</v>
       </c>
       <c r="E46" s="21" t="n">
-        <v>41.94</v>
+        <v>41.945</v>
       </c>
       <c r="F46" s="21" t="n">
         <v>0.78</v>
       </c>
       <c r="G46" s="21" t="n">
-        <v>8.369999999999999</v>
+        <v>8.372999999999999</v>
       </c>
       <c r="H46" s="21" t="n">
         <v>20.98</v>
       </c>
       <c r="I46" s="21" t="n">
-        <v>72.06999999999999</v>
+        <v>72.078</v>
       </c>
     </row>
     <row r="47">
@@ -1433,22 +1433,22 @@
         </is>
       </c>
       <c r="D47" s="20" t="n">
-        <v>948.003</v>
+        <v>948</v>
       </c>
       <c r="E47" s="21" t="n">
-        <v>101.96</v>
+        <v>101.957</v>
       </c>
       <c r="F47" s="21" t="n">
-        <v>1.9</v>
+        <v>1.896</v>
       </c>
       <c r="G47" s="21" t="n">
-        <v>20.35</v>
+        <v>20.354</v>
       </c>
       <c r="H47" s="21" t="n">
         <v>45.7</v>
       </c>
       <c r="I47" s="21" t="n">
-        <v>169.91</v>
+        <v>169.907</v>
       </c>
     </row>
     <row r="48">
@@ -1466,22 +1466,22 @@
         </is>
       </c>
       <c r="D48" s="20" t="n">
-        <v>396.001</v>
+        <v>396</v>
       </c>
       <c r="E48" s="21" t="n">
         <v>42.59</v>
       </c>
       <c r="F48" s="21" t="n">
-        <v>0.79</v>
+        <v>0.792</v>
       </c>
       <c r="G48" s="21" t="n">
-        <v>8.5</v>
+        <v>8.502000000000001</v>
       </c>
       <c r="H48" s="21" t="n">
         <v>21.25</v>
       </c>
       <c r="I48" s="21" t="n">
-        <v>73.13</v>
+        <v>73.134</v>
       </c>
     </row>
     <row r="49">
@@ -1499,22 +1499,22 @@
         </is>
       </c>
       <c r="D49" s="20" t="n">
-        <v>334.001</v>
+        <v>334</v>
       </c>
       <c r="E49" s="21" t="n">
-        <v>35.92</v>
+        <v>35.922</v>
       </c>
       <c r="F49" s="21" t="n">
-        <v>0.67</v>
+        <v>0.668</v>
       </c>
       <c r="G49" s="21" t="n">
-        <v>7.17</v>
+        <v>7.171</v>
       </c>
       <c r="H49" s="21" t="n">
         <v>18.5</v>
       </c>
       <c r="I49" s="21" t="n">
-        <v>62.26</v>
+        <v>62.261</v>
       </c>
     </row>
     <row r="50">
@@ -1532,13 +1532,13 @@
         </is>
       </c>
       <c r="D50" s="20" t="n">
-        <v>347.001</v>
+        <v>347</v>
       </c>
       <c r="E50" s="21" t="n">
         <v>37.32</v>
       </c>
       <c r="F50" s="21" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.694</v>
       </c>
       <c r="G50" s="21" t="n">
         <v>7.45</v>
@@ -1547,7 +1547,7 @@
         <v>19.07</v>
       </c>
       <c r="I50" s="21" t="n">
-        <v>64.53</v>
+        <v>64.53400000000001</v>
       </c>
     </row>
     <row r="51">
@@ -1565,22 +1565,22 @@
         </is>
       </c>
       <c r="D51" s="20" t="n">
-        <v>917.003</v>
+        <v>917</v>
       </c>
       <c r="E51" s="21" t="n">
-        <v>98.62</v>
+        <v>98.623</v>
       </c>
       <c r="F51" s="21" t="n">
-        <v>1.83</v>
+        <v>1.834</v>
       </c>
       <c r="G51" s="21" t="n">
-        <v>19.69</v>
+        <v>19.688</v>
       </c>
       <c r="H51" s="21" t="n">
         <v>44.33</v>
       </c>
       <c r="I51" s="21" t="n">
-        <v>164.47</v>
+        <v>164.475</v>
       </c>
     </row>
     <row r="52">
@@ -1697,22 +1697,22 @@
         </is>
       </c>
       <c r="D55" s="20" t="n">
-        <v>2053.006</v>
+        <v>2053</v>
       </c>
       <c r="E55" s="21" t="n">
         <v>220.8</v>
       </c>
       <c r="F55" s="21" t="n">
-        <v>4.11</v>
+        <v>4.106</v>
       </c>
       <c r="G55" s="21" t="n">
-        <v>44.08</v>
+        <v>44.078</v>
       </c>
       <c r="H55" s="21" t="n">
         <v>97.12</v>
       </c>
       <c r="I55" s="21" t="n">
-        <v>366.11</v>
+        <v>366.104</v>
       </c>
     </row>
     <row r="56">
@@ -1763,13 +1763,13 @@
         </is>
       </c>
       <c r="D57" s="20" t="n">
-        <v>2769.009</v>
+        <v>2769</v>
       </c>
       <c r="E57" s="21" t="n">
-        <v>297.81</v>
+        <v>297.806</v>
       </c>
       <c r="F57" s="21" t="n">
-        <v>5.54</v>
+        <v>5.538</v>
       </c>
       <c r="G57" s="21" t="n">
         <v>59.45</v>
@@ -1778,7 +1778,7 @@
         <v>126.37</v>
       </c>
       <c r="I57" s="21" t="n">
-        <v>489.17</v>
+        <v>489.164</v>
       </c>
     </row>
     <row r="58">
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="D58" s="20" t="n">
-        <v>538.002</v>
+        <v>538</v>
       </c>
       <c r="E58" s="21" t="n">
-        <v>57.86</v>
+        <v>57.862</v>
       </c>
       <c r="F58" s="21" t="n">
-        <v>1.08</v>
+        <v>1.076</v>
       </c>
       <c r="G58" s="21" t="n">
-        <v>11.55</v>
+        <v>11.551</v>
       </c>
       <c r="H58" s="21" t="n">
         <v>33.08</v>
       </c>
       <c r="I58" s="21" t="n">
-        <v>103.57</v>
+        <v>103.569</v>
       </c>
     </row>
     <row r="59">
@@ -1829,22 +1829,22 @@
         </is>
       </c>
       <c r="D59" s="20" t="n">
-        <v>3317.01</v>
+        <v>3317</v>
       </c>
       <c r="E59" s="21" t="n">
-        <v>356.74</v>
+        <v>356.743</v>
       </c>
       <c r="F59" s="21" t="n">
-        <v>6.63</v>
+        <v>6.634</v>
       </c>
       <c r="G59" s="21" t="n">
-        <v>71.22</v>
+        <v>71.21599999999999</v>
       </c>
       <c r="H59" s="21" t="n">
         <v>150.65</v>
       </c>
       <c r="I59" s="21" t="n">
-        <v>585.24</v>
+        <v>585.2430000000001</v>
       </c>
     </row>
     <row r="60">
@@ -1862,7 +1862,7 @@
         </is>
       </c>
       <c r="D60" s="20" t="n">
-        <v>7600.024</v>
+        <v>7600</v>
       </c>
       <c r="E60" s="21" t="n">
         <v>817.38</v>
@@ -1871,13 +1871,13 @@
         <v>15.2</v>
       </c>
       <c r="G60" s="21" t="n">
-        <v>163.17</v>
+        <v>163.172</v>
       </c>
       <c r="H60" s="21" t="n">
         <v>345.63</v>
       </c>
       <c r="I60" s="21" t="n">
-        <v>1341.38</v>
+        <v>1341.382</v>
       </c>
     </row>
     <row r="61">
@@ -1895,22 +1895,22 @@
         </is>
       </c>
       <c r="D61" s="20" t="n">
-        <v>631.002</v>
+        <v>631</v>
       </c>
       <c r="E61" s="21" t="n">
-        <v>67.86</v>
+        <v>67.864</v>
       </c>
       <c r="F61" s="21" t="n">
-        <v>1.26</v>
+        <v>1.262</v>
       </c>
       <c r="G61" s="21" t="n">
-        <v>13.55</v>
+        <v>13.548</v>
       </c>
       <c r="H61" s="21" t="n">
         <v>31.65</v>
       </c>
       <c r="I61" s="21" t="n">
-        <v>114.32</v>
+        <v>114.324</v>
       </c>
     </row>
     <row r="62">
@@ -1928,22 +1928,22 @@
         </is>
       </c>
       <c r="D62" s="20" t="n">
-        <v>1022.003</v>
+        <v>1022</v>
       </c>
       <c r="E62" s="21" t="n">
-        <v>109.92</v>
+        <v>109.916</v>
       </c>
       <c r="F62" s="21" t="n">
-        <v>2.04</v>
+        <v>2.044</v>
       </c>
       <c r="G62" s="21" t="n">
-        <v>21.94</v>
+        <v>21.942</v>
       </c>
       <c r="H62" s="21" t="n">
         <v>48.98</v>
       </c>
       <c r="I62" s="21" t="n">
-        <v>182.88</v>
+        <v>182.882</v>
       </c>
     </row>
     <row r="63">
@@ -1961,22 +1961,22 @@
         </is>
       </c>
       <c r="D63" s="20" t="n">
-        <v>736.002</v>
+        <v>736</v>
       </c>
       <c r="E63" s="21" t="n">
-        <v>79.16</v>
+        <v>79.157</v>
       </c>
       <c r="F63" s="21" t="n">
-        <v>1.47</v>
+        <v>1.472</v>
       </c>
       <c r="G63" s="21" t="n">
-        <v>15.8</v>
+        <v>15.802</v>
       </c>
       <c r="H63" s="21" t="n">
         <v>36.3</v>
       </c>
       <c r="I63" s="21" t="n">
-        <v>132.73</v>
+        <v>132.731</v>
       </c>
     </row>
     <row r="64">
@@ -1994,22 +1994,22 @@
         </is>
       </c>
       <c r="D64" s="20" t="n">
-        <v>405.001</v>
+        <v>405</v>
       </c>
       <c r="E64" s="21" t="n">
-        <v>43.56</v>
+        <v>43.558</v>
       </c>
       <c r="F64" s="21" t="n">
         <v>0.8100000000000001</v>
       </c>
       <c r="G64" s="21" t="n">
-        <v>8.699999999999999</v>
+        <v>8.695</v>
       </c>
       <c r="H64" s="21" t="n">
         <v>21.64</v>
       </c>
       <c r="I64" s="21" t="n">
-        <v>74.70999999999999</v>
+        <v>74.703</v>
       </c>
     </row>
     <row r="65">
@@ -2027,22 +2027,22 @@
         </is>
       </c>
       <c r="D65" s="20" t="n">
-        <v>224.001</v>
+        <v>224</v>
       </c>
       <c r="E65" s="21" t="n">
-        <v>24.09</v>
+        <v>24.091</v>
       </c>
       <c r="F65" s="21" t="n">
-        <v>0.45</v>
+        <v>0.448</v>
       </c>
       <c r="G65" s="21" t="n">
-        <v>4.81</v>
+        <v>4.809</v>
       </c>
       <c r="H65" s="21" t="n">
         <v>13.63</v>
       </c>
       <c r="I65" s="21" t="n">
-        <v>42.98</v>
+        <v>42.978</v>
       </c>
     </row>
     <row r="66">
@@ -2051,31 +2051,31 @@
       </c>
       <c r="B66" s="19" t="inlineStr">
         <is>
-          <t>32Z103000677927P</t>
+          <t>32Z1030007304794</t>
         </is>
       </c>
       <c r="C66" s="19" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>ул. любата  № 15 административна сграда, общо табло</t>
         </is>
       </c>
       <c r="D66" s="20" t="n">
-        <v>24784</v>
+        <v>1451</v>
       </c>
       <c r="E66" s="21" t="n">
-        <v>2665.52</v>
+        <v>156.055</v>
       </c>
       <c r="F66" s="21" t="n">
-        <v>49.57</v>
+        <v>2.902</v>
       </c>
       <c r="G66" s="21" t="n">
-        <v>532.11</v>
+        <v>31.153</v>
       </c>
       <c r="H66" s="21" t="n">
-        <v>1151.63</v>
+        <v>67.98</v>
       </c>
       <c r="I66" s="21" t="n">
-        <v>4398.83</v>
+        <v>258.09</v>
       </c>
     </row>
     <row r="67">
@@ -2084,31 +2084,31 @@
       </c>
       <c r="B67" s="19" t="inlineStr">
         <is>
-          <t>32Z1030007304794</t>
+          <t>32Z103000677927P</t>
         </is>
       </c>
       <c r="C67" s="19" t="inlineStr">
         <is>
-          <t>ул. любата  № 15 административна сграда, общо табло</t>
+          <t>none</t>
         </is>
       </c>
       <c r="D67" s="20" t="n">
-        <v>1451.005</v>
+        <v>24784</v>
       </c>
       <c r="E67" s="21" t="n">
-        <v>156.06</v>
+        <v>2665.519</v>
       </c>
       <c r="F67" s="21" t="n">
-        <v>2.9</v>
+        <v>49.568</v>
       </c>
       <c r="G67" s="21" t="n">
-        <v>31.15</v>
+        <v>532.112</v>
       </c>
       <c r="H67" s="21" t="n">
-        <v>67.98</v>
+        <v>1151.63</v>
       </c>
       <c r="I67" s="21" t="n">
-        <v>258.09</v>
+        <v>4398.829</v>
       </c>
     </row>
   </sheetData>
@@ -2300,6 +2300,11 @@
           <t>32Z1030007304794</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1350705759</t>
+        </is>
+      </c>
       <c r="H2" s="2" t="n">
         <v>44047</v>
       </c>
@@ -2364,6 +2369,11 @@
           <t>32Z1030007304794</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1350705759</t>
+        </is>
+      </c>
       <c r="H3" s="2" t="n">
         <v>44047</v>
       </c>
@@ -2608,6 +2618,11 @@
           <t>32Z1030007304794</t>
         </is>
       </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1350705759</t>
+        </is>
+      </c>
       <c r="H6" s="2" t="n">
         <v>44047</v>
       </c>
@@ -2672,6 +2687,11 @@
           <t>32Z1030007304794</t>
         </is>
       </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1350705759</t>
+        </is>
+      </c>
       <c r="H7" s="2" t="n">
         <v>44047</v>
       </c>
@@ -2736,6 +2756,11 @@
           <t>32Z103000677927P</t>
         </is>
       </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>95776776</t>
+        </is>
+      </c>
       <c r="H8" s="2" t="n">
         <v>44075</v>
       </c>
@@ -2800,6 +2825,11 @@
           <t>32Z103000677927P</t>
         </is>
       </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>95776776</t>
+        </is>
+      </c>
       <c r="H9" s="2" t="n">
         <v>44075</v>
       </c>
@@ -2864,6 +2894,11 @@
           <t>32Z103000677927P</t>
         </is>
       </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>95776776</t>
+        </is>
+      </c>
       <c r="H10" s="2" t="n">
         <v>44075</v>
       </c>
@@ -2928,6 +2963,11 @@
           <t>32Z103000677927P</t>
         </is>
       </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>95776776</t>
+        </is>
+      </c>
       <c r="H11" s="2" t="n">
         <v>44075</v>
       </c>
@@ -3262,6 +3302,11 @@
           <t>32Z103000630034C</t>
         </is>
       </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>50641358</t>
+        </is>
+      </c>
       <c r="H15" s="2" t="n">
         <v>44064</v>
       </c>
@@ -3326,6 +3371,11 @@
           <t>32Z103000630034C</t>
         </is>
       </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>50641358</t>
+        </is>
+      </c>
       <c r="H16" s="2" t="n">
         <v>44064</v>
       </c>
@@ -3390,6 +3440,11 @@
           <t>32Z103000630034C</t>
         </is>
       </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>50641358</t>
+        </is>
+      </c>
       <c r="H17" s="2" t="n">
         <v>44064</v>
       </c>
@@ -3634,6 +3689,11 @@
           <t>32Z103000630034C</t>
         </is>
       </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>50641358</t>
+        </is>
+      </c>
       <c r="H20" s="2" t="n">
         <v>44064</v>
       </c>
@@ -3878,6 +3938,11 @@
           <t>32Z103000630033E</t>
         </is>
       </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>50641357</t>
+        </is>
+      </c>
       <c r="H23" s="2" t="n">
         <v>44064</v>
       </c>
@@ -3942,6 +4007,11 @@
           <t>32Z103000630033E</t>
         </is>
       </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>50641357</t>
+        </is>
+      </c>
       <c r="H24" s="2" t="n">
         <v>44064</v>
       </c>
@@ -4006,6 +4076,11 @@
           <t>32Z103000630033E</t>
         </is>
       </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>50641357</t>
+        </is>
+      </c>
       <c r="H25" s="2" t="n">
         <v>44064</v>
       </c>
@@ -4070,6 +4145,11 @@
           <t>32Z103000630033E</t>
         </is>
       </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>50641357</t>
+        </is>
+      </c>
       <c r="H26" s="2" t="n">
         <v>44064</v>
       </c>
@@ -4224,6 +4304,11 @@
           <t>32Z103000630032G</t>
         </is>
       </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>50641356</t>
+        </is>
+      </c>
       <c r="H28" s="2" t="n">
         <v>44064</v>
       </c>
@@ -4288,6 +4373,11 @@
           <t>32Z103000630032G</t>
         </is>
       </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>50641356</t>
+        </is>
+      </c>
       <c r="H29" s="2" t="n">
         <v>44064</v>
       </c>
@@ -4442,6 +4532,11 @@
           <t>32Z103000630032G</t>
         </is>
       </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>50641356</t>
+        </is>
+      </c>
       <c r="H31" s="2" t="n">
         <v>44064</v>
       </c>
@@ -4504,6 +4599,11 @@
       <c r="F32" t="inlineStr">
         <is>
           <t>32Z103000630032G</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>50641356</t>
         </is>
       </c>
       <c r="H32" s="2" t="n">
@@ -4660,6 +4760,11 @@
           <t>32Z103000630031I</t>
         </is>
       </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>50641355</t>
+        </is>
+      </c>
       <c r="H34" s="2" t="n">
         <v>44064</v>
       </c>
@@ -4724,6 +4829,11 @@
           <t>32Z103000630031I</t>
         </is>
       </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>50641355</t>
+        </is>
+      </c>
       <c r="H35" s="2" t="n">
         <v>44064</v>
       </c>
@@ -4788,6 +4898,11 @@
           <t>32Z103000630031I</t>
         </is>
       </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>50641355</t>
+        </is>
+      </c>
       <c r="H36" s="2" t="n">
         <v>44064</v>
       </c>
@@ -4852,6 +4967,11 @@
           <t>32Z103000630031I</t>
         </is>
       </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>50641355</t>
+        </is>
+      </c>
       <c r="H37" s="2" t="n">
         <v>44064</v>
       </c>
@@ -5006,6 +5126,11 @@
           <t>32Z103000630030K</t>
         </is>
       </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>50641434</t>
+        </is>
+      </c>
       <c r="H39" s="2" t="n">
         <v>44064</v>
       </c>
@@ -5070,6 +5195,11 @@
           <t>32Z103000630030K</t>
         </is>
       </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>50641434</t>
+        </is>
+      </c>
       <c r="H40" s="2" t="n">
         <v>44064</v>
       </c>
@@ -5224,6 +5354,11 @@
           <t>32Z103000630030K</t>
         </is>
       </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>50641434</t>
+        </is>
+      </c>
       <c r="H42" s="2" t="n">
         <v>44064</v>
       </c>
@@ -5378,6 +5513,11 @@
           <t>32Z103000630030K</t>
         </is>
       </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>50641434</t>
+        </is>
+      </c>
       <c r="H44" s="2" t="n">
         <v>44064</v>
       </c>
@@ -5532,6 +5672,11 @@
           <t>32Z103000490405I</t>
         </is>
       </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>50963572</t>
+        </is>
+      </c>
       <c r="H46" s="2" t="n">
         <v>44063</v>
       </c>
@@ -5596,6 +5741,11 @@
           <t>32Z103000490405I</t>
         </is>
       </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>50963572</t>
+        </is>
+      </c>
       <c r="H47" s="2" t="n">
         <v>44063</v>
       </c>
@@ -5660,6 +5810,11 @@
           <t>32Z103000490405I</t>
         </is>
       </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>50963572</t>
+        </is>
+      </c>
       <c r="H48" s="2" t="n">
         <v>44063</v>
       </c>
@@ -5724,6 +5879,11 @@
           <t>32Z103000490405I</t>
         </is>
       </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>50963572</t>
+        </is>
+      </c>
       <c r="H49" s="2" t="n">
         <v>44063</v>
       </c>
@@ -6058,6 +6218,11 @@
           <t>32Z103000490404K</t>
         </is>
       </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>1022683464</t>
+        </is>
+      </c>
       <c r="H53" s="2" t="n">
         <v>44049</v>
       </c>
@@ -6122,6 +6287,11 @@
           <t>32Z103000490404K</t>
         </is>
       </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>1022683464</t>
+        </is>
+      </c>
       <c r="H54" s="2" t="n">
         <v>44049</v>
       </c>
@@ -6186,6 +6356,11 @@
           <t>32Z103000490404K</t>
         </is>
       </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>1022683464</t>
+        </is>
+      </c>
       <c r="H55" s="2" t="n">
         <v>44049</v>
       </c>
@@ -6250,6 +6425,11 @@
           <t>32Z103000490404K</t>
         </is>
       </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>1022683464</t>
+        </is>
+      </c>
       <c r="H56" s="2" t="n">
         <v>44049</v>
       </c>
@@ -6404,6 +6584,11 @@
           <t>32Z103000489686J</t>
         </is>
       </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>1022683461</t>
+        </is>
+      </c>
       <c r="H58" s="2" t="n">
         <v>44049</v>
       </c>
@@ -6468,6 +6653,11 @@
           <t>32Z103000489686J</t>
         </is>
       </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>1022683461</t>
+        </is>
+      </c>
       <c r="H59" s="2" t="n">
         <v>44049</v>
       </c>
@@ -6532,6 +6722,11 @@
           <t>32Z103000489686J</t>
         </is>
       </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>1022683461</t>
+        </is>
+      </c>
       <c r="H60" s="2" t="n">
         <v>44049</v>
       </c>
@@ -6776,6 +6971,11 @@
           <t>32Z103000489686J</t>
         </is>
       </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>1022683461</t>
+        </is>
+      </c>
       <c r="H63" s="2" t="n">
         <v>44049</v>
       </c>
@@ -7020,6 +7220,11 @@
           <t>32Z103000489685L</t>
         </is>
       </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>1022683462</t>
+        </is>
+      </c>
       <c r="H66" s="2" t="n">
         <v>44049</v>
       </c>
@@ -7084,6 +7289,11 @@
           <t>32Z103000489685L</t>
         </is>
       </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>1022683462</t>
+        </is>
+      </c>
       <c r="H67" s="2" t="n">
         <v>44049</v>
       </c>
@@ -7148,6 +7358,11 @@
           <t>32Z103000489685L</t>
         </is>
       </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>1022683462</t>
+        </is>
+      </c>
       <c r="H68" s="2" t="n">
         <v>44049</v>
       </c>
@@ -7212,6 +7427,11 @@
           <t>32Z103000489685L</t>
         </is>
       </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>1022683462</t>
+        </is>
+      </c>
       <c r="H69" s="2" t="n">
         <v>44049</v>
       </c>
@@ -7276,6 +7496,11 @@
           <t>32Z103000489684N</t>
         </is>
       </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>1022683466</t>
+        </is>
+      </c>
       <c r="H70" s="2" t="n">
         <v>44049</v>
       </c>
@@ -7520,6 +7745,11 @@
           <t>32Z103000489684N</t>
         </is>
       </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>1022683466</t>
+        </is>
+      </c>
       <c r="H73" s="2" t="n">
         <v>44049</v>
       </c>
@@ -7584,6 +7814,11 @@
           <t>32Z103000489684N</t>
         </is>
       </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>1022683466</t>
+        </is>
+      </c>
       <c r="H74" s="2" t="n">
         <v>44049</v>
       </c>
@@ -7648,6 +7883,11 @@
           <t>32Z103000489684N</t>
         </is>
       </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>1022683466</t>
+        </is>
+      </c>
       <c r="H75" s="2" t="n">
         <v>44049</v>
       </c>
@@ -7712,6 +7952,11 @@
           <t>32Z103000489683P</t>
         </is>
       </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>1022683465</t>
+        </is>
+      </c>
       <c r="H76" s="2" t="n">
         <v>44049</v>
       </c>
@@ -7866,6 +8111,11 @@
           <t>32Z103000489683P</t>
         </is>
       </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>1022683465</t>
+        </is>
+      </c>
       <c r="H78" s="2" t="n">
         <v>44049</v>
       </c>
@@ -7930,6 +8180,11 @@
           <t>32Z103000489683P</t>
         </is>
       </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>1022683465</t>
+        </is>
+      </c>
       <c r="H79" s="2" t="n">
         <v>44049</v>
       </c>
@@ -7994,6 +8249,11 @@
           <t>32Z103000489683P</t>
         </is>
       </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>1022683465</t>
+        </is>
+      </c>
       <c r="H80" s="2" t="n">
         <v>44049</v>
       </c>
@@ -8148,6 +8408,11 @@
           <t>32Z103000447153E</t>
         </is>
       </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>1350705766</t>
+        </is>
+      </c>
       <c r="H82" s="2" t="n">
         <v>44047</v>
       </c>
@@ -8212,6 +8477,11 @@
           <t>32Z103000447153E</t>
         </is>
       </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>1350705766</t>
+        </is>
+      </c>
       <c r="H83" s="2" t="n">
         <v>44047</v>
       </c>
@@ -8276,6 +8546,11 @@
           <t>32Z103000447153E</t>
         </is>
       </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>1350705766</t>
+        </is>
+      </c>
       <c r="H84" s="2" t="n">
         <v>44047</v>
       </c>
@@ -8340,6 +8615,11 @@
           <t>32Z103000447153E</t>
         </is>
       </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>1350705766</t>
+        </is>
+      </c>
       <c r="H85" s="2" t="n">
         <v>44047</v>
       </c>
@@ -8764,6 +9044,11 @@
           <t>32Z103000447152G</t>
         </is>
       </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>1350705765</t>
+        </is>
+      </c>
       <c r="H90" s="2" t="n">
         <v>44047</v>
       </c>
@@ -8828,6 +9113,11 @@
           <t>32Z103000447152G</t>
         </is>
       </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>1350705765</t>
+        </is>
+      </c>
       <c r="H91" s="2" t="n">
         <v>44047</v>
       </c>
@@ -8892,6 +9182,11 @@
           <t>32Z103000447152G</t>
         </is>
       </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>1350705765</t>
+        </is>
+      </c>
       <c r="H92" s="2" t="n">
         <v>44047</v>
       </c>
@@ -8956,6 +9251,11 @@
           <t>32Z103000447152G</t>
         </is>
       </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>1350705765</t>
+        </is>
+      </c>
       <c r="H93" s="2" t="n">
         <v>44047</v>
       </c>
@@ -9020,6 +9320,11 @@
           <t>32Z103000447151I</t>
         </is>
       </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>1350705764</t>
+        </is>
+      </c>
       <c r="H94" s="2" t="n">
         <v>44047</v>
       </c>
@@ -9084,6 +9389,11 @@
           <t>32Z103000447151I</t>
         </is>
       </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>1350705764</t>
+        </is>
+      </c>
       <c r="H95" s="2" t="n">
         <v>44047</v>
       </c>
@@ -9148,6 +9458,11 @@
           <t>32Z103000447151I</t>
         </is>
       </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>1350705764</t>
+        </is>
+      </c>
       <c r="H96" s="2" t="n">
         <v>44047</v>
       </c>
@@ -9392,6 +9707,11 @@
           <t>32Z103000447151I</t>
         </is>
       </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>1350705764</t>
+        </is>
+      </c>
       <c r="H99" s="2" t="n">
         <v>44047</v>
       </c>
@@ -9636,6 +9956,11 @@
           <t>32Z103000447150K</t>
         </is>
       </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>1350705763</t>
+        </is>
+      </c>
       <c r="H102" s="2" t="n">
         <v>44047</v>
       </c>
@@ -9700,6 +10025,11 @@
           <t>32Z103000447150K</t>
         </is>
       </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>1350705763</t>
+        </is>
+      </c>
       <c r="H103" s="2" t="n">
         <v>44047</v>
       </c>
@@ -9764,6 +10094,11 @@
           <t>32Z103000447150K</t>
         </is>
       </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>1350705763</t>
+        </is>
+      </c>
       <c r="H104" s="2" t="n">
         <v>44047</v>
       </c>
@@ -9828,6 +10163,11 @@
           <t>32Z103000447150K</t>
         </is>
       </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>1350705763</t>
+        </is>
+      </c>
       <c r="H105" s="2" t="n">
         <v>44047</v>
       </c>
@@ -9982,6 +10322,11 @@
           <t>32Z1030004471495</t>
         </is>
       </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>1350705761</t>
+        </is>
+      </c>
       <c r="H107" s="2" t="n">
         <v>44047</v>
       </c>
@@ -10046,6 +10391,11 @@
           <t>32Z1030004471495</t>
         </is>
       </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>1350705761</t>
+        </is>
+      </c>
       <c r="H108" s="2" t="n">
         <v>44047</v>
       </c>
@@ -10110,6 +10460,11 @@
           <t>32Z1030004471495</t>
         </is>
       </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>1350705761</t>
+        </is>
+      </c>
       <c r="H109" s="2" t="n">
         <v>44047</v>
       </c>
@@ -10174,6 +10529,11 @@
           <t>32Z1030004471495</t>
         </is>
       </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>1350705761</t>
+        </is>
+      </c>
       <c r="H110" s="2" t="n">
         <v>44047</v>
       </c>
@@ -10418,6 +10778,11 @@
           <t>32Z1030004471487</t>
         </is>
       </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>1350705760</t>
+        </is>
+      </c>
       <c r="H113" s="2" t="n">
         <v>44047</v>
       </c>
@@ -10482,6 +10847,11 @@
           <t>32Z1030004471487</t>
         </is>
       </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>1350705760</t>
+        </is>
+      </c>
       <c r="H114" s="2" t="n">
         <v>44047</v>
       </c>
@@ -10546,6 +10916,11 @@
           <t>32Z1030004471487</t>
         </is>
       </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>1350705760</t>
+        </is>
+      </c>
       <c r="H115" s="2" t="n">
         <v>44047</v>
       </c>
@@ -10610,6 +10985,11 @@
           <t>32Z1030004471487</t>
         </is>
       </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>1350705760</t>
+        </is>
+      </c>
       <c r="H116" s="2" t="n">
         <v>44047</v>
       </c>
@@ -10764,6 +11144,11 @@
           <t>32Z1030004471479</t>
         </is>
       </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>1350705758</t>
+        </is>
+      </c>
       <c r="H118" s="2" t="n">
         <v>44047</v>
       </c>
@@ -10828,6 +11213,11 @@
           <t>32Z1030004471479</t>
         </is>
       </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>1350705758</t>
+        </is>
+      </c>
       <c r="H119" s="2" t="n">
         <v>44047</v>
       </c>
@@ -10892,6 +11282,11 @@
           <t>32Z1030004471479</t>
         </is>
       </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>1350705758</t>
+        </is>
+      </c>
       <c r="H120" s="2" t="n">
         <v>44047</v>
       </c>
@@ -11136,6 +11531,11 @@
           <t>32Z1030004471479</t>
         </is>
       </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>1350705758</t>
+        </is>
+      </c>
       <c r="H123" s="2" t="n">
         <v>44047</v>
       </c>
@@ -11200,6 +11600,11 @@
           <t>32Z103000447146B</t>
         </is>
       </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>1350704424</t>
+        </is>
+      </c>
       <c r="H124" s="2" t="n">
         <v>44047</v>
       </c>
@@ -11264,6 +11669,11 @@
           <t>32Z103000447146B</t>
         </is>
       </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>1350704424</t>
+        </is>
+      </c>
       <c r="H125" s="2" t="n">
         <v>44047</v>
       </c>
@@ -11508,6 +11918,11 @@
           <t>32Z103000447146B</t>
         </is>
       </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>1350704424</t>
+        </is>
+      </c>
       <c r="H128" s="2" t="n">
         <v>44047</v>
       </c>
@@ -11572,6 +11987,11 @@
           <t>32Z103000447146B</t>
         </is>
       </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>1350704424</t>
+        </is>
+      </c>
       <c r="H129" s="2" t="n">
         <v>44047</v>
       </c>
@@ -11636,6 +12056,11 @@
           <t>32Z103000447145D</t>
         </is>
       </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>1350704423</t>
+        </is>
+      </c>
       <c r="H130" s="2" t="n">
         <v>44047</v>
       </c>
@@ -11700,6 +12125,11 @@
           <t>32Z103000447145D</t>
         </is>
       </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>1350704423</t>
+        </is>
+      </c>
       <c r="H131" s="2" t="n">
         <v>44047</v>
       </c>
@@ -11764,6 +12194,11 @@
           <t>32Z103000447145D</t>
         </is>
       </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>1350704423</t>
+        </is>
+      </c>
       <c r="H132" s="2" t="n">
         <v>44047</v>
       </c>
@@ -11828,6 +12263,11 @@
           <t>32Z103000447145D</t>
         </is>
       </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>1350704423</t>
+        </is>
+      </c>
       <c r="H133" s="2" t="n">
         <v>44047</v>
       </c>
@@ -12162,6 +12602,11 @@
           <t>32Z103000447144F</t>
         </is>
       </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>1350704422</t>
+        </is>
+      </c>
       <c r="H137" s="2" t="n">
         <v>44047</v>
       </c>
@@ -12316,6 +12761,11 @@
           <t>32Z103000447144F</t>
         </is>
       </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>1350704422</t>
+        </is>
+      </c>
       <c r="H139" s="2" t="n">
         <v>44047</v>
       </c>
@@ -12380,6 +12830,11 @@
           <t>32Z103000447144F</t>
         </is>
       </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>1350704422</t>
+        </is>
+      </c>
       <c r="H140" s="2" t="n">
         <v>44047</v>
       </c>
@@ -12444,6 +12899,11 @@
           <t>32Z103000447144F</t>
         </is>
       </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>1350704422</t>
+        </is>
+      </c>
       <c r="H141" s="2" t="n">
         <v>44047</v>
       </c>
@@ -12508,6 +12968,11 @@
           <t>32Z103000447143H</t>
         </is>
       </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>1350704421</t>
+        </is>
+      </c>
       <c r="H142" s="2" t="n">
         <v>44047</v>
       </c>
@@ -12572,6 +13037,11 @@
           <t>32Z103000447143H</t>
         </is>
       </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>1350704421</t>
+        </is>
+      </c>
       <c r="H143" s="2" t="n">
         <v>44047</v>
       </c>
@@ -12726,6 +13196,11 @@
           <t>32Z103000447143H</t>
         </is>
       </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>1350704421</t>
+        </is>
+      </c>
       <c r="H145" s="2" t="n">
         <v>44047</v>
       </c>
@@ -12880,6 +13355,11 @@
           <t>32Z103000447143H</t>
         </is>
       </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>1350704421</t>
+        </is>
+      </c>
       <c r="H147" s="2" t="n">
         <v>44047</v>
       </c>
@@ -12944,6 +13424,11 @@
           <t>32Z103000444415P</t>
         </is>
       </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>1350856377</t>
+        </is>
+      </c>
       <c r="H148" s="2" t="n">
         <v>44067</v>
       </c>
@@ -13008,6 +13493,11 @@
           <t>32Z103000444415P</t>
         </is>
       </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>1350856377</t>
+        </is>
+      </c>
       <c r="H149" s="2" t="n">
         <v>44067</v>
       </c>
@@ -13072,6 +13562,11 @@
           <t>32Z103000444415P</t>
         </is>
       </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>1350856377</t>
+        </is>
+      </c>
       <c r="H150" s="2" t="n">
         <v>44067</v>
       </c>
@@ -13136,6 +13631,11 @@
           <t>32Z103000444415P</t>
         </is>
       </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>1350856377</t>
+        </is>
+      </c>
       <c r="H151" s="2" t="n">
         <v>44067</v>
       </c>
@@ -13380,6 +13880,11 @@
           <t>32Z103000444412V</t>
         </is>
       </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>1450864540</t>
+        </is>
+      </c>
       <c r="H154" s="2" t="n">
         <v>44067</v>
       </c>
@@ -13444,6 +13949,11 @@
           <t>32Z103000444412V</t>
         </is>
       </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>1450864540</t>
+        </is>
+      </c>
       <c r="H155" s="2" t="n">
         <v>44067</v>
       </c>
@@ -13508,6 +14018,11 @@
           <t>32Z103000444412V</t>
         </is>
       </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>1450864540</t>
+        </is>
+      </c>
       <c r="H156" s="2" t="n">
         <v>44067</v>
       </c>
@@ -13752,6 +14267,11 @@
           <t>32Z103000444412V</t>
         </is>
       </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>1450864540</t>
+        </is>
+      </c>
       <c r="H159" s="2" t="n">
         <v>44067</v>
       </c>
@@ -13906,6 +14426,11 @@
           <t>32Z103000444411X</t>
         </is>
       </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>1450864539</t>
+        </is>
+      </c>
       <c r="H161" s="2" t="n">
         <v>44067</v>
       </c>
@@ -13970,6 +14495,11 @@
           <t>32Z103000444411X</t>
         </is>
       </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>1450864539</t>
+        </is>
+      </c>
       <c r="H162" s="2" t="n">
         <v>44067</v>
       </c>
@@ -14034,6 +14564,11 @@
           <t>32Z103000444411X</t>
         </is>
       </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>1450864539</t>
+        </is>
+      </c>
       <c r="H163" s="2" t="n">
         <v>44067</v>
       </c>
@@ -14098,6 +14633,11 @@
           <t>32Z103000444411X</t>
         </is>
       </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>1450864539</t>
+        </is>
+      </c>
       <c r="H164" s="2" t="n">
         <v>44067</v>
       </c>
@@ -14252,6 +14792,11 @@
           <t>32Z103000444410Z</t>
         </is>
       </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>1450864532</t>
+        </is>
+      </c>
       <c r="H166" s="2" t="n">
         <v>44067</v>
       </c>
@@ -14316,6 +14861,11 @@
           <t>32Z103000444410Z</t>
         </is>
       </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>1450864532</t>
+        </is>
+      </c>
       <c r="H167" s="2" t="n">
         <v>44067</v>
       </c>
@@ -14380,6 +14930,11 @@
           <t>32Z103000444410Z</t>
         </is>
       </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>1450864532</t>
+        </is>
+      </c>
       <c r="H168" s="2" t="n">
         <v>44067</v>
       </c>
@@ -14444,6 +14999,11 @@
           <t>32Z103000444410Z</t>
         </is>
       </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>1450864532</t>
+        </is>
+      </c>
       <c r="H169" s="2" t="n">
         <v>44067</v>
       </c>
@@ -14598,6 +15158,11 @@
           <t>32Z103000444409K</t>
         </is>
       </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>50641367</t>
+        </is>
+      </c>
       <c r="H171" s="2" t="n">
         <v>44064</v>
       </c>
@@ -14662,6 +15227,11 @@
           <t>32Z103000444409K</t>
         </is>
       </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>50641367</t>
+        </is>
+      </c>
       <c r="H172" s="2" t="n">
         <v>44064</v>
       </c>
@@ -14816,6 +15386,11 @@
           <t>32Z103000444409K</t>
         </is>
       </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>50641367</t>
+        </is>
+      </c>
       <c r="H174" s="2" t="n">
         <v>44064</v>
       </c>
@@ -14970,6 +15545,11 @@
           <t>32Z103000444409K</t>
         </is>
       </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>50641367</t>
+        </is>
+      </c>
       <c r="H176" s="2" t="n">
         <v>44064</v>
       </c>
@@ -15034,6 +15614,11 @@
           <t>32Z103000444408M</t>
         </is>
       </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>50641366</t>
+        </is>
+      </c>
       <c r="H177" s="2" t="n">
         <v>44064</v>
       </c>
@@ -15278,6 +15863,11 @@
           <t>32Z103000444408M</t>
         </is>
       </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>50641366</t>
+        </is>
+      </c>
       <c r="H180" s="2" t="n">
         <v>44064</v>
       </c>
@@ -15342,6 +15932,11 @@
           <t>32Z103000444408M</t>
         </is>
       </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>50641366</t>
+        </is>
+      </c>
       <c r="H181" s="2" t="n">
         <v>44064</v>
       </c>
@@ -15406,6 +16001,11 @@
           <t>32Z103000444408M</t>
         </is>
       </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>50641366</t>
+        </is>
+      </c>
       <c r="H182" s="2" t="n">
         <v>44064</v>
       </c>
@@ -15470,6 +16070,11 @@
           <t>32Z103000444407O</t>
         </is>
       </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>50641365</t>
+        </is>
+      </c>
       <c r="H183" s="2" t="n">
         <v>44064</v>
       </c>
@@ -15714,6 +16319,11 @@
           <t>32Z103000444407O</t>
         </is>
       </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>50641365</t>
+        </is>
+      </c>
       <c r="H186" s="2" t="n">
         <v>44064</v>
       </c>
@@ -15778,6 +16388,11 @@
           <t>32Z103000444407O</t>
         </is>
       </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>50641365</t>
+        </is>
+      </c>
       <c r="H187" s="2" t="n">
         <v>44064</v>
       </c>
@@ -15842,6 +16457,11 @@
           <t>32Z103000444407O</t>
         </is>
       </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>50641365</t>
+        </is>
+      </c>
       <c r="H188" s="2" t="n">
         <v>44064</v>
       </c>
@@ -15906,6 +16526,11 @@
           <t>32Z103000444406Q</t>
         </is>
       </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>50641364</t>
+        </is>
+      </c>
       <c r="H189" s="2" t="n">
         <v>44064</v>
       </c>
@@ -15970,6 +16595,11 @@
           <t>32Z103000444406Q</t>
         </is>
       </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>50641364</t>
+        </is>
+      </c>
       <c r="H190" s="2" t="n">
         <v>44064</v>
       </c>
@@ -16124,6 +16754,11 @@
           <t>32Z103000444406Q</t>
         </is>
       </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>50641364</t>
+        </is>
+      </c>
       <c r="H192" s="2" t="n">
         <v>44064</v>
       </c>
@@ -16188,6 +16823,11 @@
           <t>32Z103000444406Q</t>
         </is>
       </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>50641364</t>
+        </is>
+      </c>
       <c r="H193" s="2" t="n">
         <v>44064</v>
       </c>
@@ -16522,6 +17162,11 @@
           <t>32Z103000444405S</t>
         </is>
       </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>50641363</t>
+        </is>
+      </c>
       <c r="H197" s="2" t="n">
         <v>44064</v>
       </c>
@@ -16586,6 +17231,11 @@
           <t>32Z103000444405S</t>
         </is>
       </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>50641363</t>
+        </is>
+      </c>
       <c r="H198" s="2" t="n">
         <v>44064</v>
       </c>
@@ -16650,6 +17300,11 @@
           <t>32Z103000444405S</t>
         </is>
       </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>50641363</t>
+        </is>
+      </c>
       <c r="H199" s="2" t="n">
         <v>44064</v>
       </c>
@@ -16714,6 +17369,11 @@
           <t>32Z103000444405S</t>
         </is>
       </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>50641363</t>
+        </is>
+      </c>
       <c r="H200" s="2" t="n">
         <v>44064</v>
       </c>
@@ -16958,6 +17618,11 @@
           <t>32Z103000444404U</t>
         </is>
       </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>50641362</t>
+        </is>
+      </c>
       <c r="H203" s="2" t="n">
         <v>44064</v>
       </c>
@@ -17022,6 +17687,11 @@
           <t>32Z103000444404U</t>
         </is>
       </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>50641362</t>
+        </is>
+      </c>
       <c r="H204" s="2" t="n">
         <v>44064</v>
       </c>
@@ -17086,6 +17756,11 @@
           <t>32Z103000444404U</t>
         </is>
       </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>50641362</t>
+        </is>
+      </c>
       <c r="H205" s="2" t="n">
         <v>44064</v>
       </c>
@@ -17150,6 +17825,11 @@
           <t>32Z103000444404U</t>
         </is>
       </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>50641362</t>
+        </is>
+      </c>
       <c r="H206" s="2" t="n">
         <v>44064</v>
       </c>
@@ -17394,6 +18074,11 @@
           <t>32Z103000444403W</t>
         </is>
       </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>50641361</t>
+        </is>
+      </c>
       <c r="H209" s="2" t="n">
         <v>44064</v>
       </c>
@@ -17458,6 +18143,11 @@
           <t>32Z103000444403W</t>
         </is>
       </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>50641361</t>
+        </is>
+      </c>
       <c r="H210" s="2" t="n">
         <v>44064</v>
       </c>
@@ -17522,6 +18212,11 @@
           <t>32Z103000444403W</t>
         </is>
       </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>50641361</t>
+        </is>
+      </c>
       <c r="H211" s="2" t="n">
         <v>44064</v>
       </c>
@@ -17586,6 +18281,11 @@
           <t>32Z103000444403W</t>
         </is>
       </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>50641361</t>
+        </is>
+      </c>
       <c r="H212" s="2" t="n">
         <v>44064</v>
       </c>
@@ -17830,6 +18530,11 @@
           <t>32Z103000444402Y</t>
         </is>
       </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>50641360</t>
+        </is>
+      </c>
       <c r="H215" s="2" t="n">
         <v>44064</v>
       </c>
@@ -17894,6 +18599,11 @@
           <t>32Z103000444402Y</t>
         </is>
       </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>50641360</t>
+        </is>
+      </c>
       <c r="H216" s="2" t="n">
         <v>44064</v>
       </c>
@@ -17958,6 +18668,11 @@
           <t>32Z103000444402Y</t>
         </is>
       </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>50641360</t>
+        </is>
+      </c>
       <c r="H217" s="2" t="n">
         <v>44064</v>
       </c>
@@ -18022,6 +18737,11 @@
           <t>32Z103000444402Y</t>
         </is>
       </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>50641360</t>
+        </is>
+      </c>
       <c r="H218" s="2" t="n">
         <v>44064</v>
       </c>
@@ -18086,6 +18806,11 @@
           <t>32Z103000443650K</t>
         </is>
       </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>50641359</t>
+        </is>
+      </c>
       <c r="H219" s="2" t="n">
         <v>44064</v>
       </c>
@@ -18150,6 +18875,11 @@
           <t>32Z103000443650K</t>
         </is>
       </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>50641359</t>
+        </is>
+      </c>
       <c r="H220" s="2" t="n">
         <v>44064</v>
       </c>
@@ -18214,6 +18944,11 @@
           <t>32Z103000443650K</t>
         </is>
       </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>50641359</t>
+        </is>
+      </c>
       <c r="H221" s="2" t="n">
         <v>44064</v>
       </c>
@@ -18278,6 +19013,11 @@
           <t>32Z103000443650K</t>
         </is>
       </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>50641359</t>
+        </is>
+      </c>
       <c r="H222" s="2" t="n">
         <v>44064</v>
       </c>
@@ -18522,6 +19262,11 @@
           <t>32Z103000409710M</t>
         </is>
       </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>1551030999</t>
+        </is>
+      </c>
       <c r="H225" s="2" t="n">
         <v>44067</v>
       </c>
@@ -18586,6 +19331,11 @@
           <t>32Z103000409710M</t>
         </is>
       </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>1551030999</t>
+        </is>
+      </c>
       <c r="H226" s="2" t="n">
         <v>44067</v>
       </c>
@@ -18650,6 +19400,11 @@
           <t>32Z103000409710M</t>
         </is>
       </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>1551030999</t>
+        </is>
+      </c>
       <c r="H227" s="2" t="n">
         <v>44067</v>
       </c>
@@ -18712,6 +19467,11 @@
       <c r="F228" t="inlineStr">
         <is>
           <t>32Z103000409710M</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>1551030999</t>
         </is>
       </c>
       <c r="H228" s="2" t="n">
